--- a/Holding_Farm Parcels.xlsx
+++ b/Holding_Farm Parcels.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niecelle\Desktop\CAPSTONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niecelle\Desktop\CAPSTONE\Final Datas to use\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308C8613-5058-44E9-AC32-A528AAF61718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277A94ED-6411-433E-8DD5-4284F0B47620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +146,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor rgb="FFFFA07A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -161,9 +167,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -171,6 +176,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,4355 +491,4377 @@
   <dimension ref="A1:I186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B189" sqref="B189"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="54.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1960</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>1971</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>1980</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>1991</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>2002</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>2012</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>2166216</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>2354469</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>3420323</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>4610041</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>4822739</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>5563138</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1198987</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>1446927</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>2146685</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>1811096</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>1858545</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>3903856</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>787943</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>715291</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>1084803</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>2461645</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>2679001</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>1520738</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>129086</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>123723</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>145984</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>277978</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>232826</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>113628</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>50200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>68528</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>42851</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>59323</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>52367</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>24916</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
         <v>8493735</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>9725155</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>9974871</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>9670793</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>7271446</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
         <v>4656683</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>5531600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>3200757</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>2825379</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>3750991</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
         <v>2657160</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>3316200</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>5239093</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>5441914</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>2803317</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
         <v>657578</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>603200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>1097256</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>938840</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>465873</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
         <v>522315</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>274000</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>437764</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>464660</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>251265</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>5272</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>2787</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>12841</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>15136</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>22820</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>38580</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>3214</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>1949</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>10598</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>12487</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>16741</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>37419</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>1720</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>616</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>2153</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>2444</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>5391</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>1106</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>270</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>130</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>62</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>183</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>555</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>68</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>92</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>28</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>22</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>133</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="D19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
         <v>6244</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>47946</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>53646</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>71632</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>20271</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
         <v>3404</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>34500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>16068</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <v>37516</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <v>14357</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2">
         <v>1604</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>11900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>28529</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>25667</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>4942</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
         <v>494</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>1100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>3879</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>6013</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>521</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="D23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2">
         <v>742</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>5171</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>2436</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>69312</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>67036</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>93940</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>108251</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>120104</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <v>167515</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>17662</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>16435</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>30826</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <v>14916</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <v>16754</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <v>67360</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>29066</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>23510</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>38630</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <v>65459</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>78927</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <v>81804</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>13351</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>10612</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>17595</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <v>21595</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>18318</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <v>14676</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>9234</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>16479</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>6889</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <v>6282</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <v>6105</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="2">
         <v>3675</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="D29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2">
         <v>161451</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>227365</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <v>155581</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <v>177839</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <v>138817</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="D30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2">
         <v>41649</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>68455</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <v>14504</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <v>16892</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="2">
         <v>29435</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="D31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="2">
         <v>58159</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>95658</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <v>90166</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>111527</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="2">
         <v>76470</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="D32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="2">
         <v>23433</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>45894</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <v>39074</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="2">
         <v>36094</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="2">
         <v>24084</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="D33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2">
         <v>38208</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>17359</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="2">
         <v>11837</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <v>13325</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="2">
         <v>8828</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>175004</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>175308</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>246261</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <v>311758</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <v>276766</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="2">
         <v>313398</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>53646</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>52702</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>67606</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <v>47636</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <v>50979</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="2">
         <v>147244</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>80446</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>75963</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>121575</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="2">
         <v>198768</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="2">
         <v>170657</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="2">
         <v>137222</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>26758</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>28398</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>40146</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="2">
         <v>48044</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="2">
         <v>40741</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="2">
         <v>22337</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>14154</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>18245</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>16934</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <v>17307</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <v>14389</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="2">
         <v>6595</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="3">
+      <c r="D39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2">
         <v>297200</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>326915</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <v>324501</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <v>270664</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="2">
         <v>218658</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="3">
+      <c r="D40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="2">
         <v>74261</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>70533</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="2">
         <v>27617</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="2">
         <v>38598</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="2">
         <v>70199</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="D41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2">
         <v>127669</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>158111</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="2">
         <v>195958</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="2">
         <v>153759</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="2">
         <v>108504</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="D42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2">
         <v>54675</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>64810</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="2">
         <v>70659</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="2">
         <v>54705</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="2">
         <v>27927</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="D43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="2">
         <v>40594</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>33459</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="2">
         <v>30268</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="2">
         <v>23603</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="2">
         <v>12029</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>125297</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>144827</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>209284</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="2">
         <v>285721</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="2">
         <v>321755</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="2">
         <v>443260</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <v>50017</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>71092</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>84425</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="2">
         <v>39850</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="2">
         <v>42549</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="2">
         <v>257693</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <v>63219</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <v>62499</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <v>108199</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="2">
         <v>206838</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="2">
         <v>240528</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="2">
         <v>166177</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <v>9432</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>8240</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <v>14569</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="2">
         <v>32938</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="2">
         <v>31793</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="2">
         <v>15805</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="2">
         <v>2629</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>2996</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <v>2091</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="2">
         <v>6095</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="2">
         <v>6885</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="2">
         <v>3585</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
+      <c r="D49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="2">
         <v>502439</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="2">
         <v>506563</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="2">
         <v>530143</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="2">
         <v>540812</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="2">
         <v>480957</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="3">
+      <c r="D50" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="2">
         <v>239836</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <v>154804</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="2">
         <v>34241</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="2">
         <v>41683</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="2">
         <v>130072</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="3">
+      <c r="D51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="2">
         <v>193838</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <v>270565</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="2">
         <v>344035</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="2">
         <v>358073</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="2">
         <v>265614</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="D52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="2">
         <v>41530</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <v>68670</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="2">
         <v>109976</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="2">
         <v>101226</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="2">
         <v>60069</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="3">
+      <c r="D53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="2">
         <v>27235</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <v>12524</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="2">
         <v>41891</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="2">
         <v>39831</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="2">
         <v>25202</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="2">
         <v>174598</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <v>174445</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="2">
         <v>245491</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="2">
         <v>350785</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="2">
         <v>341466</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="2">
         <v>361545</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>102836</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>106072</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <v>182635</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="2">
         <v>81777</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="2">
         <v>93620</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="2">
         <v>266807</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="2">
         <v>64246</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="2">
         <v>61118</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="2">
         <v>58654</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="2">
         <v>255068</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="2">
         <v>237265</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="2">
         <v>88988</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="2">
         <v>6225</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="2">
         <v>5733</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="2">
         <v>3633</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="2">
         <v>12202</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="2">
         <v>8995</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="2">
         <v>4775</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="2">
         <v>1291</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <v>1522</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="2">
         <v>569</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="2">
         <v>1735</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="2">
         <v>1586</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="2">
         <v>975</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
+      <c r="D59" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="2">
         <v>564921</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="2">
         <v>526750</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="2">
         <v>632493</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="2">
         <v>552104</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="2">
         <v>446176</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
+      <c r="D60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="2">
         <v>289664</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="2">
         <v>346461</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="2">
         <v>87212</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="2">
         <v>103463</v>
       </c>
-      <c r="I60" s="3">
+      <c r="I60" s="2">
         <v>238927</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="3">
+      <c r="D61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="2">
         <v>220550</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="2">
         <v>157894</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="2">
         <v>470790</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="2">
         <v>392644</v>
       </c>
-      <c r="I61" s="3">
+      <c r="I61" s="2">
         <v>170387</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="D62" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="2">
         <v>35455</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="2">
         <v>18719</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="2">
         <v>58997</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="2">
         <v>44061</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="2">
         <v>24605</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="3">
+      <c r="D63" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="2">
         <v>19250</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="2">
         <v>3676</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="2">
         <v>15494</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="2">
         <v>11935</v>
       </c>
-      <c r="I63" s="3">
+      <c r="I63" s="2">
         <v>12256</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="2">
         <v>163807</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="2">
         <v>169407</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="2">
         <v>250771</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64" s="2">
         <v>319865</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="2">
         <v>282746</v>
       </c>
-      <c r="I64" s="3">
+      <c r="I64" s="2">
         <v>341851</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="2">
         <v>90022</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="2">
         <v>98661</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="2">
         <v>177268</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" s="2">
         <v>165679</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="2">
         <v>160092</v>
       </c>
-      <c r="I65" s="3">
+      <c r="I65" s="2">
         <v>288056</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="2">
         <v>63093</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="2">
         <v>58129</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="2">
         <v>67517</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="2">
         <v>138842</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="2">
         <v>112395</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="2">
         <v>49855</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="2">
         <v>8139</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="2">
         <v>8862</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="2">
         <v>4991</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" s="2">
         <v>12611</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H67" s="2">
         <v>8464</v>
       </c>
-      <c r="I67" s="3">
+      <c r="I67" s="2">
         <v>3246</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="2">
         <v>2553</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="2">
         <v>3755</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="2">
         <v>995</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="2">
         <v>2734</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="2">
         <v>1795</v>
       </c>
-      <c r="I68" s="3">
+      <c r="I68" s="2">
         <v>694</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" s="3">
+      <c r="D69" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="2">
         <v>586399</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="2">
         <v>654217</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="2">
         <v>703256</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="2">
         <v>588516</v>
       </c>
-      <c r="I69" s="3">
+      <c r="I69" s="2">
         <v>497669</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" s="3">
+      <c r="D70" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="2">
         <v>279508</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="2">
         <v>393816</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="2">
         <v>278512</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="2">
         <v>258103</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I70" s="2">
         <v>320924</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71" s="3">
+      <c r="D71" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="2">
         <v>205103</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="2">
         <v>214509</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="2">
         <v>329806</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="2">
         <v>271364</v>
       </c>
-      <c r="I71" s="3">
+      <c r="I71" s="2">
         <v>147005</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
+      <c r="D72" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="2">
         <v>56211</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="2">
         <v>29033</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="2">
         <v>65363</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="2">
         <v>43949</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="2">
         <v>21323</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" s="3">
+      <c r="D73" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="2">
         <v>45577</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="2">
         <v>16858</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73" s="2">
         <v>29574</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="2">
         <v>15102</v>
       </c>
-      <c r="I73" s="3">
+      <c r="I73" s="2">
         <v>8416</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="2">
         <v>78888</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="2">
         <v>92550</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="2">
         <v>138368</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="2">
         <v>209248</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="2">
         <v>220967</v>
       </c>
-      <c r="I74" s="3">
+      <c r="I74" s="2">
         <v>277742</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="2">
         <v>46699</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="2">
         <v>65317</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="2">
         <v>90668</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="2">
         <v>106995</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="2">
         <v>92933</v>
       </c>
-      <c r="I75" s="3">
+      <c r="I75" s="2">
         <v>202546</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="2">
         <v>27187</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="2">
         <v>22975</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="2">
         <v>43542</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="2">
         <v>94231</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="2">
         <v>119759</v>
       </c>
-      <c r="I76" s="3">
+      <c r="I76" s="2">
         <v>70610</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="2">
         <v>3322</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="2">
         <v>2838</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="2">
         <v>3315</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77" s="2">
         <v>6744</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="2">
         <v>7035</v>
       </c>
-      <c r="I77" s="3">
+      <c r="I77" s="2">
         <v>3839</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="2">
         <v>1680</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="2">
         <v>1420</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="2">
         <v>843</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" s="2">
         <v>1280</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="2">
         <v>1240</v>
       </c>
-      <c r="I78" s="3">
+      <c r="I78" s="2">
         <v>747</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E79" s="3">
+      <c r="D79" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="2">
         <v>456080</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="2">
         <v>565757</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" s="2">
         <v>569814</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H79" s="2">
         <v>542218</v>
       </c>
-      <c r="I79" s="3">
+      <c r="I79" s="2">
         <v>445568</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E80" s="3">
+      <c r="D80" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="2">
         <v>265036</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="2">
         <v>337067</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G80" s="2">
         <v>252767</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="2">
         <v>177957</v>
       </c>
-      <c r="I80" s="3">
+      <c r="I80" s="2">
         <v>229480</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
+      <c r="D81" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="2">
         <v>133202</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="2">
         <v>190973</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="2">
         <v>266620</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="2">
         <v>309812</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="2">
         <v>176922</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E82" s="3">
+      <c r="D82" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="2">
         <v>31969</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="2">
         <v>26842</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82" s="2">
         <v>39762</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="2">
         <v>42056</v>
       </c>
-      <c r="I82" s="3">
+      <c r="I82" s="2">
         <v>25004</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
+      <c r="D83" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="2">
         <v>25874</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="2">
         <v>10877</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="2">
         <v>10663</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="2">
         <v>12392</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="2">
         <v>14162</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="2">
         <v>196695</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="2">
         <v>223023</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="2">
         <v>311214</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="2">
         <v>377791</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="2">
         <v>384801</v>
       </c>
-      <c r="I84" s="3">
+      <c r="I84" s="2">
         <v>486312</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="2">
         <v>117063</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="2">
         <v>149502</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="2">
         <v>212222</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G85" s="2">
         <v>160824</v>
       </c>
-      <c r="H85" s="3">
+      <c r="H85" s="2">
         <v>146573</v>
       </c>
-      <c r="I85" s="3">
+      <c r="I85" s="2">
         <v>350675</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="2">
         <v>69365</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="2">
         <v>63204</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="2">
         <v>90750</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="2">
         <v>199381</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H86" s="2">
         <v>224822</v>
       </c>
-      <c r="I86" s="3">
+      <c r="I86" s="2">
         <v>127803</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="2">
         <v>8000</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="2">
         <v>7667</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="2">
         <v>6810</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G87" s="2">
         <v>15048</v>
       </c>
-      <c r="H87" s="3">
+      <c r="H87" s="2">
         <v>11684</v>
       </c>
-      <c r="I87" s="3">
+      <c r="I87" s="2">
         <v>6734</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="2">
         <v>2267</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="2">
         <v>2650</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="2">
         <v>1432</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G88" s="2">
         <v>2538</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="2">
         <v>1722</v>
       </c>
-      <c r="I88" s="3">
+      <c r="I88" s="2">
         <v>1100</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
+      <c r="D89" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="2">
         <v>921276</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="2">
         <v>1036607</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="2">
         <v>936174</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="2">
         <v>891955</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="2">
         <v>774225</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E90" s="3">
+      <c r="D90" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="2">
         <v>529765</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="2">
         <v>619095</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90" s="2">
         <v>337816</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H90" s="2">
         <v>269863</v>
       </c>
-      <c r="I90" s="3">
+      <c r="I90" s="2">
         <v>428427</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
+      <c r="D91" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="2">
         <v>288007</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="2">
         <v>344523</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="2">
         <v>484906</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="2">
         <v>538449</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="2">
         <v>298486</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E92" s="3">
+      <c r="D92" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" s="2">
         <v>59740</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="2">
         <v>49721</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92" s="2">
         <v>87024</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92" s="2">
         <v>66297</v>
       </c>
-      <c r="I92" s="3">
+      <c r="I92" s="2">
         <v>36888</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E93" s="3">
+      <c r="D93" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="2">
         <v>43763</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="2">
         <v>23266</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93" s="2">
         <v>26428</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H93" s="2">
         <v>17348</v>
       </c>
-      <c r="I93" s="3">
+      <c r="I93" s="2">
         <v>10424</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="2">
         <v>211715</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="2">
         <v>190704</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="2">
         <v>279123</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="2">
         <v>411572</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="2">
         <v>429456</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="2">
         <v>517796</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="2">
         <v>124601</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="2">
         <v>123571</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="2">
         <v>182166</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G95" s="2">
         <v>120299</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H95" s="2">
         <v>133333</v>
       </c>
-      <c r="I95" s="3">
+      <c r="I95" s="2">
         <v>342795</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="2">
         <v>76992</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="2">
         <v>57445</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="2">
         <v>87165</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G96" s="2">
         <v>267339</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96" s="2">
         <v>276860</v>
       </c>
-      <c r="I96" s="3">
+      <c r="I96" s="2">
         <v>166071</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="2">
         <v>8204</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="2">
         <v>6970</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="2">
         <v>8143</v>
       </c>
-      <c r="G97" s="3">
+      <c r="G97" s="2">
         <v>21305</v>
       </c>
-      <c r="H97" s="3">
+      <c r="H97" s="2">
         <v>16924</v>
       </c>
-      <c r="I97" s="3">
+      <c r="I97" s="2">
         <v>7745</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="2">
         <v>1918</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="2">
         <v>2718</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="2">
         <v>1649</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98" s="2">
         <v>2631</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H98" s="2">
         <v>2339</v>
       </c>
-      <c r="I98" s="3">
+      <c r="I98" s="2">
         <v>1185</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E99" s="3">
+      <c r="D99" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" s="2">
         <v>781954</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="2">
         <v>765886</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99" s="2">
         <v>754386</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H99" s="2">
         <v>666917</v>
       </c>
-      <c r="I99" s="3">
+      <c r="I99" s="2">
         <v>467789</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
+      <c r="D100" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="2">
         <v>396341</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="2">
         <v>436122</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="2">
         <v>147495</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="2">
         <v>141134</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="2">
         <v>190913</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
+      <c r="D101" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="2">
         <v>247079</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="2">
         <v>259460</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="2">
         <v>461418</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="2">
         <v>432862</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="2">
         <v>216258</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D102" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
+      <c r="D102" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="2">
         <v>73769</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="2">
         <v>44311</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="2">
         <v>104042</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="2">
         <v>66296</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="2">
         <v>31126</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E103" s="3">
+      <c r="D103" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103" s="2">
         <v>64764</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="2">
         <v>25993</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G103" s="2">
         <v>41431</v>
       </c>
-      <c r="H103" s="3">
+      <c r="H103" s="2">
         <v>26625</v>
       </c>
-      <c r="I103" s="3">
+      <c r="I103" s="2">
         <v>29491</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="2">
         <v>235458</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104" s="2">
         <v>221742</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104" s="2">
         <v>341884</v>
       </c>
-      <c r="G104" s="3">
+      <c r="G104" s="2">
         <v>424825</v>
       </c>
-      <c r="H104" s="3">
+      <c r="H104" s="2">
         <v>430043</v>
       </c>
-      <c r="I104" s="3">
+      <c r="I104" s="2">
         <v>427464</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="2">
         <v>108593</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="2">
         <v>115048</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="2">
         <v>170751</v>
       </c>
-      <c r="G105" s="3">
+      <c r="G105" s="2">
         <v>190577</v>
       </c>
-      <c r="H105" s="3">
+      <c r="H105" s="2">
         <v>215169</v>
       </c>
-      <c r="I105" s="3">
+      <c r="I105" s="2">
         <v>288914</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="2">
         <v>103802</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="2">
         <v>82149</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="2">
         <v>143009</v>
       </c>
-      <c r="G106" s="3">
+      <c r="G106" s="2">
         <v>195920</v>
       </c>
-      <c r="H106" s="3">
+      <c r="H106" s="2">
         <v>192022</v>
       </c>
-      <c r="I106" s="3">
+      <c r="I106" s="2">
         <v>127600</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="2">
         <v>18183</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="2">
         <v>17026</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107" s="2">
         <v>22321</v>
       </c>
-      <c r="G107" s="3">
+      <c r="G107" s="2">
         <v>32253</v>
       </c>
-      <c r="H107" s="3">
+      <c r="H107" s="2">
         <v>19223</v>
       </c>
-      <c r="I107" s="3">
+      <c r="I107" s="2">
         <v>9263</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="2">
         <v>4880</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="2">
         <v>7519</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="2">
         <v>5803</v>
       </c>
-      <c r="G108" s="3">
+      <c r="G108" s="2">
         <v>6075</v>
       </c>
-      <c r="H108" s="3">
+      <c r="H108" s="2">
         <v>3629</v>
       </c>
-      <c r="I108" s="3">
+      <c r="I108" s="2">
         <v>1687</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E109" s="3">
+      <c r="D109" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="2">
         <v>479133</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="2">
         <v>582862</v>
       </c>
-      <c r="G109" s="3">
+      <c r="G109" s="2">
         <v>549895</v>
       </c>
-      <c r="H109" s="3">
+      <c r="H109" s="2">
         <v>522433</v>
       </c>
-      <c r="I109" s="3">
+      <c r="I109" s="2">
         <v>292505</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E110" s="3">
+      <c r="D110" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="2">
         <v>209019</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F110" s="2">
         <v>245009</v>
       </c>
-      <c r="G110" s="3">
+      <c r="G110" s="2">
         <v>182052</v>
       </c>
-      <c r="H110" s="3">
+      <c r="H110" s="2">
         <v>172627</v>
       </c>
-      <c r="I110" s="3">
+      <c r="I110" s="2">
         <v>131050</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E111" s="3">
+      <c r="D111" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="2">
         <v>173908</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111" s="2">
         <v>242619</v>
       </c>
-      <c r="G111" s="3">
+      <c r="G111" s="2">
         <v>258083</v>
       </c>
-      <c r="H111" s="3">
+      <c r="H111" s="2">
         <v>283518</v>
       </c>
-      <c r="I111" s="3">
+      <c r="I111" s="2">
         <v>124230</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E112" s="3">
+      <c r="D112" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="2">
         <v>54673</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112" s="2">
         <v>64513</v>
       </c>
-      <c r="G112" s="3">
+      <c r="G112" s="2">
         <v>77505</v>
       </c>
-      <c r="H112" s="3">
+      <c r="H112" s="2">
         <v>46171</v>
       </c>
-      <c r="I112" s="3">
+      <c r="I112" s="2">
         <v>21038</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E113" s="3">
+      <c r="D113" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="2">
         <v>41532</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F113" s="2">
         <v>30722</v>
       </c>
-      <c r="G113" s="3">
+      <c r="G113" s="2">
         <v>32255</v>
       </c>
-      <c r="H113" s="3">
+      <c r="H113" s="2">
         <v>20117</v>
       </c>
-      <c r="I113" s="3">
+      <c r="I113" s="2">
         <v>16188</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="2">
         <v>201370</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="2">
         <v>200147</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114" s="2">
         <v>271283</v>
       </c>
-      <c r="G114" s="3">
+      <c r="G114" s="2">
         <v>321456</v>
       </c>
-      <c r="H114" s="3">
+      <c r="H114" s="2">
         <v>330750</v>
       </c>
-      <c r="I114" s="3">
+      <c r="I114" s="2">
         <v>412852</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="2">
         <v>100866</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115" s="2">
         <v>103084</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115" s="2">
         <v>143494</v>
       </c>
-      <c r="G115" s="3">
+      <c r="G115" s="2">
         <v>98492</v>
       </c>
-      <c r="H115" s="3">
+      <c r="H115" s="2">
         <v>96565</v>
       </c>
-      <c r="I115" s="3">
+      <c r="I115" s="2">
         <v>285746</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="2">
         <v>82413</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="2">
         <v>79892</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F116" s="2">
         <v>114103</v>
       </c>
-      <c r="G116" s="3">
+      <c r="G116" s="2">
         <v>189305</v>
       </c>
-      <c r="H116" s="3">
+      <c r="H116" s="2">
         <v>205478</v>
       </c>
-      <c r="I116" s="3">
+      <c r="I116" s="2">
         <v>115949</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="2">
         <v>13532</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117" s="2">
         <v>12825</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F117" s="2">
         <v>11394</v>
       </c>
-      <c r="G117" s="3">
+      <c r="G117" s="2">
         <v>28130</v>
       </c>
-      <c r="H117" s="3">
+      <c r="H117" s="2">
         <v>23369</v>
       </c>
-      <c r="I117" s="3">
+      <c r="I117" s="2">
         <v>9237</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118" s="2">
         <v>4559</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118" s="2">
         <v>4346</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118" s="2">
         <v>2292</v>
       </c>
-      <c r="G118" s="3">
+      <c r="G118" s="2">
         <v>5529</v>
       </c>
-      <c r="H118" s="3">
+      <c r="H118" s="2">
         <v>5338</v>
       </c>
-      <c r="I118" s="3">
+      <c r="I118" s="2">
         <v>1920</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E119" s="3">
+      <c r="D119" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" s="2">
         <v>674136</v>
       </c>
-      <c r="F119" s="3">
+      <c r="F119" s="2">
         <v>744141</v>
       </c>
-      <c r="G119" s="3">
+      <c r="G119" s="2">
         <v>695711</v>
       </c>
-      <c r="H119" s="3">
+      <c r="H119" s="2">
         <v>723048</v>
       </c>
-      <c r="I119" s="3">
+      <c r="I119" s="2">
         <v>453641</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D120" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E120" s="3">
+      <c r="D120" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120" s="2">
         <v>254007</v>
       </c>
-      <c r="F120" s="3">
+      <c r="F120" s="2">
         <v>278148</v>
       </c>
-      <c r="G120" s="3">
+      <c r="G120" s="2">
         <v>132968</v>
       </c>
-      <c r="H120" s="3">
+      <c r="H120" s="2">
         <v>131423</v>
       </c>
-      <c r="I120" s="3">
+      <c r="I120" s="2">
         <v>195341</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E121" s="3">
+      <c r="D121" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E121" s="2">
         <v>285805</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F121" s="2">
         <v>366361</v>
       </c>
-      <c r="G121" s="3">
+      <c r="G121" s="2">
         <v>399280</v>
       </c>
-      <c r="H121" s="3">
+      <c r="H121" s="2">
         <v>422301</v>
       </c>
-      <c r="I121" s="3">
+      <c r="I121" s="2">
         <v>206246</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D122" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E122" s="3">
+      <c r="D122" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122" s="2">
         <v>75951</v>
       </c>
-      <c r="F122" s="3">
+      <c r="F122" s="2">
         <v>71535</v>
       </c>
-      <c r="G122" s="3">
+      <c r="G122" s="2">
         <v>117733</v>
       </c>
-      <c r="H122" s="3">
+      <c r="H122" s="2">
         <v>112308</v>
       </c>
-      <c r="I122" s="3">
+      <c r="I122" s="2">
         <v>36313</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E123" s="3">
+      <c r="D123" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" s="2">
         <v>58374</v>
       </c>
-      <c r="F123" s="3">
+      <c r="F123" s="2">
         <v>28094</v>
       </c>
-      <c r="G123" s="3">
+      <c r="G123" s="2">
         <v>45730</v>
       </c>
-      <c r="H123" s="3">
+      <c r="H123" s="2">
         <v>57016</v>
       </c>
-      <c r="I123" s="3">
+      <c r="I123" s="2">
         <v>15741</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124" s="2">
         <v>85594</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E124" s="2">
         <v>123814</v>
       </c>
-      <c r="F124" s="3">
+      <c r="F124" s="2">
         <v>169898</v>
       </c>
-      <c r="G124" s="3">
+      <c r="G124" s="2">
         <v>235674</v>
       </c>
-      <c r="H124" s="3">
+      <c r="H124" s="2">
         <v>252659</v>
       </c>
-      <c r="I124" s="3">
+      <c r="I124" s="2">
         <v>212718</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125" s="2">
         <v>66903</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125" s="2">
         <v>104469</v>
       </c>
-      <c r="F125" s="3">
+      <c r="F125" s="2">
         <v>137246</v>
       </c>
-      <c r="G125" s="3">
+      <c r="G125" s="2">
         <v>145372</v>
       </c>
-      <c r="H125" s="3">
+      <c r="H125" s="2">
         <v>146709</v>
       </c>
-      <c r="I125" s="3">
+      <c r="I125" s="2">
         <v>168408</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126" s="2">
         <v>17049</v>
       </c>
-      <c r="E126" s="3">
+      <c r="E126" s="2">
         <v>18005</v>
       </c>
-      <c r="F126" s="3">
+      <c r="F126" s="2">
         <v>31187</v>
       </c>
-      <c r="G126" s="3">
+      <c r="G126" s="2">
         <v>84066</v>
       </c>
-      <c r="H126" s="3">
+      <c r="H126" s="2">
         <v>99177</v>
       </c>
-      <c r="I126" s="3">
+      <c r="I126" s="2">
         <v>42417</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127" s="2">
         <v>1355</v>
       </c>
-      <c r="E127" s="3">
+      <c r="E127" s="2">
         <v>918</v>
       </c>
-      <c r="F127" s="3">
+      <c r="F127" s="2">
         <v>1281</v>
       </c>
-      <c r="G127" s="3">
+      <c r="G127" s="2">
         <v>5568</v>
       </c>
-      <c r="H127" s="3">
+      <c r="H127" s="2">
         <v>5856</v>
       </c>
-      <c r="I127" s="3">
+      <c r="I127" s="2">
         <v>1636</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128" s="2">
         <v>286</v>
       </c>
-      <c r="E128" s="3">
+      <c r="E128" s="2">
         <v>422</v>
       </c>
-      <c r="F128" s="3">
+      <c r="F128" s="2">
         <v>184</v>
       </c>
-      <c r="G128" s="3">
+      <c r="G128" s="2">
         <v>669</v>
       </c>
-      <c r="H128" s="3">
+      <c r="H128" s="2">
         <v>917</v>
       </c>
-      <c r="I128" s="3">
+      <c r="I128" s="2">
         <v>257</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D129" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E129" s="3">
+      <c r="D129" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129" s="2">
         <v>500495</v>
       </c>
-      <c r="F129" s="3">
+      <c r="F129" s="2">
         <v>613069</v>
       </c>
-      <c r="G129" s="3">
+      <c r="G129" s="2">
         <v>675723</v>
       </c>
-      <c r="H129" s="3">
+      <c r="H129" s="2">
         <v>785294</v>
       </c>
-      <c r="I129" s="3">
+      <c r="I129" s="2">
         <v>448198</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D130" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E130" s="3">
+      <c r="D130" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" s="2">
         <v>371342</v>
       </c>
-      <c r="F130" s="3">
+      <c r="F130" s="2">
         <v>440305</v>
       </c>
-      <c r="G130" s="3">
+      <c r="G130" s="2">
         <v>342781</v>
       </c>
-      <c r="H130" s="3">
+      <c r="H130" s="2">
         <v>289883</v>
       </c>
-      <c r="I130" s="3">
+      <c r="I130" s="2">
         <v>275609</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D131" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E131" s="3">
+      <c r="D131" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" s="2">
         <v>109542</v>
       </c>
-      <c r="F131" s="3">
+      <c r="F131" s="2">
         <v>154223</v>
       </c>
-      <c r="G131" s="3">
+      <c r="G131" s="2">
         <v>278566</v>
       </c>
-      <c r="H131" s="3">
+      <c r="H131" s="2">
         <v>315384</v>
       </c>
-      <c r="I131" s="3">
+      <c r="I131" s="2">
         <v>134641</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D132" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E132" s="3">
+      <c r="D132" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132" s="2">
         <v>13227</v>
       </c>
-      <c r="F132" s="3">
+      <c r="F132" s="2">
         <v>14283</v>
       </c>
-      <c r="G132" s="3">
+      <c r="G132" s="2">
         <v>43550</v>
       </c>
-      <c r="H132" s="3">
+      <c r="H132" s="2">
         <v>48507</v>
       </c>
-      <c r="I132" s="3">
+      <c r="I132" s="2">
         <v>14284</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D133" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E133" s="3">
+      <c r="D133" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" s="2">
         <v>6386</v>
       </c>
-      <c r="F133" s="3">
+      <c r="F133" s="2">
         <v>4258</v>
       </c>
-      <c r="G133" s="3">
+      <c r="G133" s="2">
         <v>10827</v>
       </c>
-      <c r="H133" s="3">
+      <c r="H133" s="2">
         <v>131521</v>
       </c>
-      <c r="I133" s="3">
+      <c r="I133" s="2">
         <v>23664</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134" s="2">
         <v>107373</v>
       </c>
-      <c r="E134" s="3">
+      <c r="E134" s="2">
         <v>140539</v>
       </c>
-      <c r="F134" s="3">
+      <c r="F134" s="2">
         <v>208401</v>
       </c>
-      <c r="G134" s="3">
+      <c r="G134" s="2">
         <v>289468</v>
       </c>
-      <c r="H134" s="3">
+      <c r="H134" s="2">
         <v>319157</v>
       </c>
-      <c r="I134" s="3">
+      <c r="I134" s="2">
         <v>371950</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135" s="2">
         <v>68367</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135" s="2">
         <v>102510</v>
       </c>
-      <c r="F135" s="3">
+      <c r="F135" s="2">
         <v>146809</v>
       </c>
-      <c r="G135" s="3">
+      <c r="G135" s="2">
         <v>131312</v>
       </c>
-      <c r="H135" s="3">
+      <c r="H135" s="2">
         <v>131532</v>
       </c>
-      <c r="I135" s="3">
+      <c r="I135" s="2">
         <v>285470</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136" s="2">
         <v>32412</v>
       </c>
-      <c r="E136" s="3">
+      <c r="E136" s="2">
         <v>32053</v>
       </c>
-      <c r="F136" s="3">
+      <c r="F136" s="2">
         <v>55019</v>
       </c>
-      <c r="G136" s="3">
+      <c r="G136" s="2">
         <v>143764</v>
       </c>
-      <c r="H136" s="3">
+      <c r="H136" s="2">
         <v>174175</v>
       </c>
-      <c r="I136" s="3">
+      <c r="I136" s="2">
         <v>81816</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137" s="2">
         <v>4528</v>
       </c>
-      <c r="E137" s="3">
+      <c r="E137" s="2">
         <v>4115</v>
       </c>
-      <c r="F137" s="3">
+      <c r="F137" s="2">
         <v>5060</v>
       </c>
-      <c r="G137" s="3">
+      <c r="G137" s="2">
         <v>11929</v>
       </c>
-      <c r="H137" s="3">
+      <c r="H137" s="2">
         <v>11199</v>
       </c>
-      <c r="I137" s="3">
+      <c r="I137" s="2">
         <v>3850</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138" s="2">
         <v>2066</v>
       </c>
-      <c r="E138" s="3">
+      <c r="E138" s="2">
         <v>1861</v>
       </c>
-      <c r="F138" s="3">
+      <c r="F138" s="2">
         <v>1513</v>
       </c>
-      <c r="G138" s="3">
+      <c r="G138" s="2">
         <v>2465</v>
       </c>
-      <c r="H138" s="3">
+      <c r="H138" s="2">
         <v>2251</v>
       </c>
-      <c r="I138" s="3">
+      <c r="I138" s="2">
         <v>814</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E139" s="3">
+      <c r="D139" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139" s="2">
         <v>571530</v>
       </c>
-      <c r="F139" s="3">
+      <c r="F139" s="2">
         <v>758642</v>
       </c>
-      <c r="G139" s="3">
+      <c r="G139" s="2">
         <v>768290</v>
       </c>
-      <c r="H139" s="3">
+      <c r="H139" s="2">
         <v>746901</v>
       </c>
-      <c r="I139" s="3">
+      <c r="I139" s="2">
         <v>565231</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D140" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E140" s="3">
+      <c r="D140" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140" s="2">
         <v>336046</v>
       </c>
-      <c r="F140" s="3">
+      <c r="F140" s="2">
         <v>435654</v>
       </c>
-      <c r="G140" s="3">
+      <c r="G140" s="2">
         <v>230842</v>
       </c>
-      <c r="H140" s="3">
+      <c r="H140" s="2">
         <v>207600</v>
       </c>
-      <c r="I140" s="3">
+      <c r="I140" s="2">
         <v>314421</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D141" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E141" s="3">
+      <c r="D141" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" s="2">
         <v>160833</v>
       </c>
-      <c r="F141" s="3">
+      <c r="F141" s="2">
         <v>246324</v>
       </c>
-      <c r="G141" s="3">
+      <c r="G141" s="2">
         <v>388682</v>
       </c>
-      <c r="H141" s="3">
+      <c r="H141" s="2">
         <v>413414</v>
       </c>
-      <c r="I141" s="3">
+      <c r="I141" s="2">
         <v>187565</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D142" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E142" s="3">
+      <c r="D142" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142" s="2">
         <v>33791</v>
       </c>
-      <c r="F142" s="3">
+      <c r="F142" s="2">
         <v>40932</v>
       </c>
-      <c r="G142" s="3">
+      <c r="G142" s="2">
         <v>78188</v>
       </c>
-      <c r="H142" s="3">
+      <c r="H142" s="2">
         <v>87067</v>
       </c>
-      <c r="I142" s="3">
+      <c r="I142" s="2">
         <v>31430</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D143" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E143" s="3">
+      <c r="D143" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143" s="2">
         <v>40858</v>
       </c>
-      <c r="F143" s="3">
+      <c r="F143" s="2">
         <v>35731</v>
       </c>
-      <c r="G143" s="3">
+      <c r="G143" s="2">
         <v>70577</v>
       </c>
-      <c r="H143" s="3">
+      <c r="H143" s="2">
         <v>38819</v>
       </c>
-      <c r="I143" s="3">
+      <c r="I143" s="2">
         <v>31815</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D144" s="2">
         <v>92243</v>
       </c>
-      <c r="E144" s="3">
+      <c r="E144" s="2">
         <v>113202</v>
       </c>
-      <c r="F144" s="3">
+      <c r="F144" s="2">
         <v>187711</v>
       </c>
-      <c r="G144" s="3">
+      <c r="G144" s="2">
         <v>267224</v>
       </c>
-      <c r="H144" s="3">
+      <c r="H144" s="2">
         <v>299966</v>
       </c>
-      <c r="I144" s="3">
+      <c r="I144" s="2">
         <v>338344</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D145" s="2">
         <v>77474</v>
       </c>
-      <c r="E145" s="3">
+      <c r="E145" s="2">
         <v>96549</v>
       </c>
-      <c r="F145" s="3">
+      <c r="F145" s="2">
         <v>166767</v>
       </c>
-      <c r="G145" s="3">
+      <c r="G145" s="2">
         <v>153619</v>
       </c>
-      <c r="H145" s="3">
+      <c r="H145" s="2">
         <v>163633</v>
       </c>
-      <c r="I145" s="3">
+      <c r="I145" s="2">
         <v>289291</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D146" s="2">
         <v>13661</v>
       </c>
-      <c r="E146" s="3">
+      <c r="E146" s="2">
         <v>15055</v>
       </c>
-      <c r="F146" s="3">
+      <c r="F146" s="2">
         <v>20006</v>
       </c>
-      <c r="G146" s="3">
+      <c r="G146" s="2">
         <v>108092</v>
       </c>
-      <c r="H146" s="3">
+      <c r="H146" s="2">
         <v>130659</v>
       </c>
-      <c r="I146" s="3">
+      <c r="I146" s="2">
         <v>46833</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D147" s="2">
         <v>838</v>
       </c>
-      <c r="E147" s="3">
+      <c r="E147" s="2">
         <v>1016</v>
       </c>
-      <c r="F147" s="3">
+      <c r="F147" s="2">
         <v>773</v>
       </c>
-      <c r="G147" s="3">
+      <c r="G147" s="2">
         <v>4864</v>
       </c>
-      <c r="H147" s="3">
+      <c r="H147" s="2">
         <v>5131</v>
       </c>
-      <c r="I147" s="3">
+      <c r="I147" s="2">
         <v>1878</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D148" s="2">
         <v>270</v>
       </c>
-      <c r="E148" s="3">
+      <c r="E148" s="2">
         <v>582</v>
       </c>
-      <c r="F148" s="3">
+      <c r="F148" s="2">
         <v>165</v>
       </c>
-      <c r="G148" s="3">
+      <c r="G148" s="2">
         <v>647</v>
       </c>
-      <c r="H148" s="3">
+      <c r="H148" s="2">
         <v>543</v>
       </c>
-      <c r="I148" s="3">
+      <c r="I148" s="2">
         <v>342</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D149" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E149" s="3">
+      <c r="D149" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149" s="2">
         <v>551413</v>
       </c>
-      <c r="F149" s="3">
+      <c r="F149" s="2">
         <v>746727</v>
       </c>
-      <c r="G149" s="3">
+      <c r="G149" s="2">
         <v>795893</v>
       </c>
-      <c r="H149" s="3">
+      <c r="H149" s="2">
         <v>758335</v>
       </c>
-      <c r="I149" s="3">
+      <c r="I149" s="2">
         <v>575559</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D150" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E150" s="3">
+      <c r="D150" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E150" s="2">
         <v>395889</v>
       </c>
-      <c r="F150" s="3">
+      <c r="F150" s="2">
         <v>571508</v>
       </c>
-      <c r="G150" s="3">
+      <c r="G150" s="2">
         <v>368600</v>
       </c>
-      <c r="H150" s="3">
+      <c r="H150" s="2">
         <v>325675</v>
       </c>
-      <c r="I150" s="3">
+      <c r="I150" s="2">
         <v>386886</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D151" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E151" s="3">
+      <c r="D151" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151" s="2">
         <v>120260</v>
       </c>
-      <c r="F151" s="3">
+      <c r="F151" s="2">
         <v>142207</v>
       </c>
-      <c r="G151" s="3">
+      <c r="G151" s="2">
         <v>358664</v>
       </c>
-      <c r="H151" s="3">
+      <c r="H151" s="2">
         <v>382386</v>
       </c>
-      <c r="I151" s="3">
+      <c r="I151" s="2">
         <v>146107</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D152" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E152" s="3">
+      <c r="D152" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152" s="2">
         <v>16997</v>
       </c>
-      <c r="F152" s="3">
+      <c r="F152" s="2">
         <v>18117</v>
       </c>
-      <c r="G152" s="3">
+      <c r="G152" s="2">
         <v>51332</v>
       </c>
-      <c r="H152" s="3">
+      <c r="H152" s="2">
         <v>40296</v>
       </c>
-      <c r="I152" s="3">
+      <c r="I152" s="2">
         <v>28027</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D153" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E153" s="3">
+      <c r="D153" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153" s="2">
         <v>18268</v>
       </c>
-      <c r="F153" s="3">
+      <c r="F153" s="2">
         <v>14897</v>
       </c>
-      <c r="G153" s="3">
+      <c r="G153" s="2">
         <v>17296</v>
       </c>
-      <c r="H153" s="3">
+      <c r="H153" s="2">
         <v>9978</v>
       </c>
-      <c r="I153" s="3">
+      <c r="I153" s="2">
         <v>14538</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D154" s="3">
+      <c r="D154" s="2">
         <v>75311</v>
       </c>
-      <c r="E154" s="3">
+      <c r="E154" s="2">
         <v>116053</v>
       </c>
-      <c r="F154" s="3">
+      <c r="F154" s="2">
         <v>169823</v>
       </c>
-      <c r="G154" s="3">
+      <c r="G154" s="2">
         <v>264095</v>
       </c>
-      <c r="H154" s="3">
+      <c r="H154" s="2">
         <v>330571</v>
       </c>
-      <c r="I154" s="3">
+      <c r="I154" s="2">
         <v>385648</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D155" s="3">
+      <c r="D155" s="2">
         <v>63296</v>
       </c>
-      <c r="E155" s="3">
+      <c r="E155" s="2">
         <v>97176</v>
       </c>
-      <c r="F155" s="3">
+      <c r="F155" s="2">
         <v>140115</v>
       </c>
-      <c r="G155" s="3">
+      <c r="G155" s="2">
         <v>135216</v>
       </c>
-      <c r="H155" s="3">
+      <c r="H155" s="2">
         <v>135663</v>
       </c>
-      <c r="I155" s="3">
+      <c r="I155" s="2">
         <v>271349</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D156" s="3">
+      <c r="D156" s="2">
         <v>11548</v>
       </c>
-      <c r="E156" s="3">
+      <c r="E156" s="2">
         <v>17911</v>
       </c>
-      <c r="F156" s="3">
+      <c r="F156" s="2">
         <v>28171</v>
       </c>
-      <c r="G156" s="3">
+      <c r="G156" s="2">
         <v>121862</v>
       </c>
-      <c r="H156" s="3">
+      <c r="H156" s="2">
         <v>185427</v>
       </c>
-      <c r="I156" s="3">
+      <c r="I156" s="2">
         <v>109514</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D157" s="3">
+      <c r="D157" s="2">
         <v>407</v>
       </c>
-      <c r="E157" s="3">
+      <c r="E157" s="2">
         <v>703</v>
       </c>
-      <c r="F157" s="3">
+      <c r="F157" s="2">
         <v>1047</v>
       </c>
-      <c r="G157" s="3">
+      <c r="G157" s="2">
         <v>6379</v>
       </c>
-      <c r="H157" s="3">
+      <c r="H157" s="2">
         <v>8097</v>
       </c>
-      <c r="I157" s="3">
+      <c r="I157" s="2">
         <v>4186</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D158" s="3">
+      <c r="D158" s="2">
         <v>60</v>
       </c>
-      <c r="E158" s="3">
+      <c r="E158" s="2">
         <v>263</v>
       </c>
-      <c r="F158" s="3">
+      <c r="F158" s="2">
         <v>490</v>
       </c>
-      <c r="G158" s="3">
+      <c r="G158" s="2">
         <v>637</v>
       </c>
-      <c r="H158" s="3">
+      <c r="H158" s="2">
         <v>1384</v>
       </c>
-      <c r="I158" s="3">
+      <c r="I158" s="2">
         <v>599</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D159" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E159" s="3">
+      <c r="D159" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E159" s="2">
         <v>591157</v>
       </c>
-      <c r="F159" s="3">
+      <c r="F159" s="2">
         <v>623648</v>
       </c>
-      <c r="G159" s="3">
+      <c r="G159" s="2">
         <v>746702</v>
       </c>
-      <c r="H159" s="3">
+      <c r="H159" s="2">
         <v>775309</v>
       </c>
-      <c r="I159" s="3">
+      <c r="I159" s="2">
         <v>638267</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D160" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E160" s="3">
+      <c r="D160" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E160" s="2">
         <v>431459</v>
       </c>
-      <c r="F160" s="3">
+      <c r="F160" s="2">
         <v>453503</v>
       </c>
-      <c r="G160" s="3">
+      <c r="G160" s="2">
         <v>308397</v>
       </c>
-      <c r="H160" s="3">
+      <c r="H160" s="2">
         <v>244174</v>
       </c>
-      <c r="I160" s="3">
+      <c r="I160" s="2">
         <v>336121</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D161" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E161" s="3">
+      <c r="D161" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E161" s="2">
         <v>110846</v>
       </c>
-      <c r="F161" s="3">
+      <c r="F161" s="2">
         <v>150192</v>
       </c>
-      <c r="G161" s="3">
+      <c r="G161" s="2">
         <v>379895</v>
       </c>
-      <c r="H161" s="3">
+      <c r="H161" s="2">
         <v>456221</v>
       </c>
-      <c r="I161" s="3">
+      <c r="I161" s="2">
         <v>259280</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D162" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E162" s="3">
+      <c r="D162" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E162" s="2">
         <v>31484</v>
       </c>
-      <c r="F162" s="3">
+      <c r="F162" s="2">
         <v>14421</v>
       </c>
-      <c r="G162" s="3">
+      <c r="G162" s="2">
         <v>48580</v>
       </c>
-      <c r="H162" s="3">
+      <c r="H162" s="2">
         <v>56079</v>
       </c>
-      <c r="I162" s="3">
+      <c r="I162" s="2">
         <v>28461</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D163" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E163" s="3">
+      <c r="D163" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E163" s="2">
         <v>17368</v>
       </c>
-      <c r="F163" s="3">
+      <c r="F163" s="2">
         <v>5532</v>
       </c>
-      <c r="G163" s="3">
+      <c r="G163" s="2">
         <v>9831</v>
       </c>
-      <c r="H163" s="3">
+      <c r="H163" s="2">
         <v>18834</v>
       </c>
-      <c r="I163" s="3">
+      <c r="I163" s="2">
         <v>14406</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D164" s="3">
+      <c r="D164" s="2">
         <v>63367</v>
       </c>
-      <c r="E164" s="3">
+      <c r="E164" s="2">
         <v>79348</v>
       </c>
-      <c r="F164" s="3">
+      <c r="F164" s="2">
         <v>131990</v>
       </c>
-      <c r="G164" s="3">
+      <c r="G164" s="2">
         <v>189600</v>
       </c>
-      <c r="H164" s="3">
+      <c r="H164" s="2">
         <v>210184</v>
       </c>
-      <c r="I164" s="3">
+      <c r="I164" s="2">
         <v>183471</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D165" s="3">
+      <c r="D165" s="2">
         <v>34844</v>
       </c>
-      <c r="E165" s="3">
+      <c r="E165" s="2">
         <v>51990</v>
       </c>
-      <c r="F165" s="3">
+      <c r="F165" s="2">
         <v>83690</v>
       </c>
-      <c r="G165" s="3">
+      <c r="G165" s="2">
         <v>49895</v>
       </c>
-      <c r="H165" s="3">
+      <c r="H165" s="2">
         <v>62208</v>
       </c>
-      <c r="I165" s="3">
+      <c r="I165" s="2">
         <v>130183</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D166" s="3">
+      <c r="D166" s="2">
         <v>23550</v>
       </c>
-      <c r="E166" s="3">
+      <c r="E166" s="2">
         <v>22498</v>
       </c>
-      <c r="F166" s="3">
+      <c r="F166" s="2">
         <v>43820</v>
       </c>
-      <c r="G166" s="3">
+      <c r="G166" s="2">
         <v>124653</v>
       </c>
-      <c r="H166" s="3">
+      <c r="H166" s="2">
         <v>136691</v>
       </c>
-      <c r="I166" s="3">
+      <c r="I166" s="2">
         <v>49446</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D167" s="3">
+      <c r="D167" s="2">
         <v>3513</v>
       </c>
-      <c r="E167" s="3">
+      <c r="E167" s="2">
         <v>3564</v>
       </c>
-      <c r="F167" s="3">
+      <c r="F167" s="2">
         <v>3692</v>
       </c>
-      <c r="G167" s="3">
+      <c r="G167" s="2">
         <v>12961</v>
       </c>
-      <c r="H167" s="3">
+      <c r="H167" s="2">
         <v>9978</v>
       </c>
-      <c r="I167" s="3">
+      <c r="I167" s="2">
         <v>3234</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D168" s="3">
+      <c r="D168" s="2">
         <v>1460</v>
       </c>
-      <c r="E168" s="3">
+      <c r="E168" s="2">
         <v>1296</v>
       </c>
-      <c r="F168" s="3">
+      <c r="F168" s="2">
         <v>788</v>
       </c>
-      <c r="G168" s="3">
+      <c r="G168" s="2">
         <v>2090</v>
       </c>
-      <c r="H168" s="3">
+      <c r="H168" s="2">
         <v>1307</v>
       </c>
-      <c r="I168" s="3">
+      <c r="I168" s="2">
         <v>608</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D169" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E169" s="3">
+      <c r="D169" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E169" s="2">
         <v>359750</v>
       </c>
-      <c r="F169" s="3">
+      <c r="F169" s="2">
         <v>483936</v>
       </c>
-      <c r="G169" s="3">
+      <c r="G169" s="2">
         <v>517446</v>
       </c>
-      <c r="H169" s="3">
+      <c r="H169" s="2">
         <v>523407</v>
       </c>
-      <c r="I169" s="3">
+      <c r="I169" s="2">
         <v>461389</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D170" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E170" s="3">
+      <c r="D170" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E170" s="2">
         <v>198331</v>
       </c>
-      <c r="F170" s="3">
+      <c r="F170" s="2">
         <v>259688</v>
       </c>
-      <c r="G170" s="3">
+      <c r="G170" s="2">
         <v>102342</v>
       </c>
-      <c r="H170" s="3">
+      <c r="H170" s="2">
         <v>111836</v>
       </c>
-      <c r="I170" s="3">
+      <c r="I170" s="2">
         <v>212689</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D171" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E171" s="3">
+      <c r="D171" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E171" s="2">
         <v>113564</v>
       </c>
-      <c r="F171" s="3">
+      <c r="F171" s="2">
         <v>189913</v>
       </c>
-      <c r="G171" s="3">
+      <c r="G171" s="2">
         <v>309893</v>
       </c>
-      <c r="H171" s="3">
+      <c r="H171" s="2">
         <v>338779</v>
       </c>
-      <c r="I171" s="3">
+      <c r="I171" s="2">
         <v>190135</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D172" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E172" s="3">
+      <c r="D172" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E172" s="2">
         <v>29158</v>
       </c>
-      <c r="F172" s="3">
+      <c r="F172" s="2">
         <v>24767</v>
       </c>
-      <c r="G172" s="3">
+      <c r="G172" s="2">
         <v>75488</v>
       </c>
-      <c r="H172" s="3">
+      <c r="H172" s="2">
         <v>56541</v>
       </c>
-      <c r="I172" s="3">
+      <c r="I172" s="2">
         <v>48747</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D173" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E173" s="3">
+      <c r="D173" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E173" s="2">
         <v>18697</v>
       </c>
-      <c r="F173" s="3">
+      <c r="F173" s="2">
         <v>9590</v>
       </c>
-      <c r="G173" s="3">
+      <c r="G173" s="2">
         <v>29724</v>
       </c>
-      <c r="H173" s="3">
+      <c r="H173" s="2">
         <v>16252</v>
       </c>
-      <c r="I173" s="3">
+      <c r="I173" s="2">
         <v>9817</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D174" s="3">
+      <c r="D174" s="2">
         <v>103075</v>
       </c>
-      <c r="E174" s="3">
+      <c r="E174" s="2">
         <v>117882</v>
       </c>
-      <c r="F174" s="3">
+      <c r="F174" s="2">
         <v>152040</v>
       </c>
-      <c r="G174" s="3">
+      <c r="G174" s="2">
         <v>223605</v>
       </c>
-      <c r="H174" s="3">
+      <c r="H174" s="2">
         <v>248528</v>
       </c>
-      <c r="I174" s="3">
+      <c r="I174" s="2">
         <v>282692</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D175" s="3">
+      <c r="D175" s="2">
         <v>71710</v>
       </c>
-      <c r="E175" s="3">
+      <c r="E175" s="2">
         <v>89469</v>
       </c>
-      <c r="F175" s="3">
+      <c r="F175" s="2">
         <v>119399</v>
       </c>
-      <c r="G175" s="3">
+      <c r="G175" s="2">
         <v>152777</v>
       </c>
-      <c r="H175" s="3">
+      <c r="H175" s="2">
         <v>153492</v>
       </c>
-      <c r="I175" s="3">
+      <c r="I175" s="2">
         <v>223901</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D176" s="3">
+      <c r="D176" s="2">
         <v>27602</v>
       </c>
-      <c r="E176" s="3">
+      <c r="E176" s="2">
         <v>21996</v>
       </c>
-      <c r="F176" s="3">
+      <c r="F176" s="2">
         <v>31303</v>
       </c>
-      <c r="G176" s="3">
+      <c r="G176" s="2">
         <v>65051</v>
       </c>
-      <c r="H176" s="3">
+      <c r="H176" s="2">
         <v>88768</v>
       </c>
-      <c r="I176" s="3">
+      <c r="I176" s="2">
         <v>57526</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D177" s="3">
+      <c r="D177" s="2">
         <v>2958</v>
       </c>
-      <c r="E177" s="3">
+      <c r="E177" s="2">
         <v>4080</v>
       </c>
-      <c r="F177" s="3">
+      <c r="F177" s="2">
         <v>1152</v>
       </c>
-      <c r="G177" s="3">
+      <c r="G177" s="2">
         <v>5201</v>
       </c>
-      <c r="H177" s="3">
+      <c r="H177" s="2">
         <v>5464</v>
       </c>
-      <c r="I177" s="3">
+      <c r="I177" s="2">
         <v>1143</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D178" s="3">
+      <c r="D178" s="2">
         <v>806</v>
       </c>
-      <c r="E178" s="3">
+      <c r="E178" s="2">
         <v>2337</v>
       </c>
-      <c r="F178" s="3">
+      <c r="F178" s="2">
         <v>186</v>
       </c>
-      <c r="G178" s="3">
+      <c r="G178" s="2">
         <v>576</v>
       </c>
-      <c r="H178" s="3">
+      <c r="H178" s="2">
         <v>804</v>
       </c>
-      <c r="I178" s="3">
+      <c r="I178" s="2">
         <v>122</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D179" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E179" s="3">
+      <c r="D179" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179" s="2">
         <v>474389</v>
       </c>
-      <c r="F179" s="3">
+      <c r="F179" s="2">
         <v>514124</v>
       </c>
-      <c r="G179" s="3">
+      <c r="G179" s="2">
         <v>553301</v>
       </c>
-      <c r="H179" s="3">
+      <c r="H179" s="2">
         <v>533410</v>
       </c>
-      <c r="I179" s="3">
+      <c r="I179" s="2">
         <v>346525</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D180" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E180" s="3">
+      <c r="D180" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E180" s="2">
         <v>336720</v>
       </c>
-      <c r="F180" s="3">
+      <c r="F180" s="2">
         <v>386859</v>
       </c>
-      <c r="G180" s="3">
+      <c r="G180" s="2">
         <v>327687</v>
       </c>
-      <c r="H180" s="3">
+      <c r="H180" s="2">
         <v>256951</v>
       </c>
-      <c r="I180" s="3">
+      <c r="I180" s="2">
         <v>246140</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D181" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E181" s="3">
+      <c r="D181" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E181" s="2">
         <v>102420</v>
       </c>
-      <c r="F181" s="3">
+      <c r="F181" s="2">
         <v>120763</v>
       </c>
-      <c r="G181" s="3">
+      <c r="G181" s="2">
         <v>191008</v>
       </c>
-      <c r="H181" s="3">
+      <c r="H181" s="2">
         <v>235756</v>
       </c>
-      <c r="I181" s="3">
+      <c r="I181" s="2">
         <v>90521</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D182" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E182" s="3">
+      <c r="D182" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E182" s="2">
         <v>20680</v>
       </c>
-      <c r="F182" s="3">
+      <c r="F182" s="2">
         <v>5613</v>
       </c>
-      <c r="G182" s="3">
+      <c r="G182" s="2">
         <v>26018</v>
       </c>
-      <c r="H182" s="3">
+      <c r="H182" s="2">
         <v>31174</v>
       </c>
-      <c r="I182" s="3">
+      <c r="I182" s="2">
         <v>6027</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D183" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E183" s="3">
+      <c r="D183" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E183" s="2">
         <v>14569</v>
       </c>
-      <c r="F183" s="3">
+      <c r="F183" s="2">
         <v>891</v>
       </c>
-      <c r="G183" s="3">
+      <c r="G183" s="2">
         <v>8587</v>
       </c>
-      <c r="H183" s="3">
+      <c r="H183" s="2">
         <v>9528</v>
       </c>
-      <c r="I183" s="3">
+      <c r="I183" s="2">
         <v>3837</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="A185" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="A186" s="5" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
 </file>